--- a/Fase 2/Evidencias Grupales/PLANILLA DE EVALUACION FINAL FASE 2.xlsx
+++ b/Fase 2/Evidencias Grupales/PLANILLA DE EVALUACION FINAL FASE 2.xlsx
@@ -1,24 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2024 - 2\003.- PTY4614 - CAPSTONE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2024 - 2\003.- PTY4614 - CAPSTONE\FASE 2 Final - 002D\Grupo -  (3)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36E11506-BBD1-4805-8DA0-637A8D44BC57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D554FBDE-B03D-4748-BCCE-223CC24AB658}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-20520" yWindow="-120" windowWidth="20640" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RUBRICA" sheetId="12" r:id="rId1"/>
     <sheet name="EVALUACION1" sheetId="1" r:id="rId2"/>
-    <sheet name="ESCALA_IEP" sheetId="2" state="hidden" r:id="rId3"/>
-    <sheet name="ESCALA_PRESENTACION" sheetId="3" state="hidden" r:id="rId4"/>
-    <sheet name="ESCALA_TRAB_EQUIP" sheetId="4" state="hidden" r:id="rId5"/>
-    <sheet name="RELEVANCIA-PUNTAJE" sheetId="5" state="hidden" r:id="rId6"/>
+    <sheet name="Hoja1" sheetId="13" state="hidden" r:id="rId3"/>
+    <sheet name="ESCALA_IEP" sheetId="2" state="hidden" r:id="rId4"/>
+    <sheet name="ESCALA_PRESENTACION" sheetId="3" state="hidden" r:id="rId5"/>
+    <sheet name="ESCALA_TRAB_EQUIP" sheetId="4" state="hidden" r:id="rId6"/>
+    <sheet name="RELEVANCIA-PUNTAJE" sheetId="5" state="hidden" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="CL">'RELEVANCIA-PUNTAJE'!$B$2</definedName>
@@ -61,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="125">
   <si>
     <t>PUNTOS</t>
   </si>
@@ -314,6 +315,153 @@
   <si>
     <t>No generan evidencias dentro del repositorio  del proyecto del aporte de cada uno de los integrantes del equipo por lo que no se permite identificar la equidad en el trabajo y la participación de cada estudiante</t>
   </si>
+  <si>
+    <t>Cada alumno debe preparar su parte y entregar una presentación con hilo conductor.</t>
+  </si>
+  <si>
+    <t>Para la demostración - traer un guión - no improvisar - usuarios de prueba -</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tecnología? </t>
+  </si>
+  <si>
+    <t>Topología?</t>
+  </si>
+  <si>
+    <t>Cuánto cuesta el proyecto ? Para venderlo o implementarlo</t>
+  </si>
+  <si>
+    <t>Perfiles de la aplicación</t>
+  </si>
+  <si>
+    <t>Modelo de datos</t>
+  </si>
+  <si>
+    <t>Diseño de la aplicación</t>
+  </si>
+  <si>
+    <t>El contexto del proyecto está claro,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">diagrama! </t>
+  </si>
+  <si>
+    <t>Flujo de trabajo</t>
+  </si>
+  <si>
+    <t>pruebas - resultados</t>
+  </si>
+  <si>
+    <t>Cronograma</t>
+  </si>
+  <si>
+    <t>raoadmap</t>
+  </si>
+  <si>
+    <t>bbdd</t>
+  </si>
+  <si>
+    <t>forma normal?</t>
+  </si>
+  <si>
+    <t>Quien Cliente real, contar un poco?</t>
+  </si>
+  <si>
+    <t>la letra de los contenidos, no tanto texto fuente mas grande</t>
+  </si>
+  <si>
+    <t>Alcance, el sistema debe tener, hacer</t>
+  </si>
+  <si>
+    <t>limitaciones o restricciones y supuestos?</t>
+  </si>
+  <si>
+    <t>metodologías porque no agil??</t>
+  </si>
+  <si>
+    <t>roles - qué responsabilidades</t>
+  </si>
+  <si>
+    <t>cómo está desplegada la solución - usuario final?</t>
+  </si>
+  <si>
+    <t>tipos de datos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">modelo bbdd </t>
+  </si>
+  <si>
+    <t>requisitos funcionales No funcionales</t>
+  </si>
+  <si>
+    <t>diagrama  - flujo de los procesos por perfil</t>
+  </si>
+  <si>
+    <t>resultados</t>
+  </si>
+  <si>
+    <t>esperados</t>
+  </si>
+  <si>
+    <t xml:space="preserve">resultados </t>
+  </si>
+  <si>
+    <t>obtenidos</t>
+  </si>
+  <si>
+    <t>como solucionaron los problemas</t>
+  </si>
+  <si>
+    <t>indice de la presentación</t>
+  </si>
+  <si>
+    <t>roles al inicio no SOLO PRESENTACIÓN</t>
+  </si>
+  <si>
+    <t>metodología, mencionar las etapas DE SCRUM???</t>
+  </si>
+  <si>
+    <t>cronograma, mostrar las fases (ROADMAP)</t>
+  </si>
+  <si>
+    <t>ETAPAS SON LOS SPRINT</t>
+  </si>
+  <si>
+    <t>NO ES TECNOLOGÍA</t>
+  </si>
+  <si>
+    <t>TAMPOCO ALCANCES</t>
+  </si>
+  <si>
+    <t>RESULTADO COMPLETAMENTE DESARROLLADO A NIVEL PARCIAL????</t>
+  </si>
+  <si>
+    <t>EPICAS</t>
+  </si>
+  <si>
+    <t>COMO VALIDAMOS ESTO</t>
+  </si>
+  <si>
+    <t>ENCUESTAS - MAPAS</t>
+  </si>
+  <si>
+    <t>ES UNA APP</t>
+  </si>
+  <si>
+    <t>ME ESTAN MOSTRANDO UNA WEB</t>
+  </si>
+  <si>
+    <t>Henriquez</t>
+  </si>
+  <si>
+    <t>Muñoz</t>
+  </si>
+  <si>
+    <t>Fleiderman</t>
+  </si>
+  <si>
+    <t>​Grupo 3</t>
+  </si>
 </sst>
 </file>
 
@@ -322,7 +470,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -428,6 +576,13 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Open Sans"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -822,7 +977,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -948,6 +1103,8 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="8" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -958,6 +1115,9 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -966,21 +1126,18 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1027,9 +1184,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema de 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1067,7 +1224,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1173,7 +1330,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1315,7 +1472,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1325,8 +1482,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B396D1B-8A63-4A90-BA20-D34AC13A3962}">
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1335,25 +1492,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="47" t="s">
+      <c r="B1" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47" t="s">
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="47"/>
-      <c r="B2" s="48" t="s">
+      <c r="A2" s="49"/>
+      <c r="B2" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="48" t="s">
+      <c r="C2" s="50" t="s">
         <v>21</v>
       </c>
       <c r="D2" s="36" t="s">
@@ -1362,19 +1519,19 @@
       <c r="E2" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="47"/>
+      <c r="F2" s="49"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="47"/>
-      <c r="B3" s="48"/>
-      <c r="C3" s="48"/>
+      <c r="A3" s="49"/>
+      <c r="B3" s="50"/>
+      <c r="C3" s="50"/>
       <c r="D3" s="37">
         <v>-0.3</v>
       </c>
       <c r="E3" s="37">
         <v>0</v>
       </c>
-      <c r="F3" s="47"/>
+      <c r="F3" s="49"/>
     </row>
     <row r="4" spans="1:6" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="38" t="s">
@@ -1594,8 +1751,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:K926"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B53" sqref="B53"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
@@ -1613,13 +1770,16 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B2" s="3" t="s">
+        <v>124</v>
+      </c>
       <c r="C2" s="2">
         <v>0.75</v>
       </c>
       <c r="D2" s="2">
         <v>0.25</v>
       </c>
-      <c r="E2" s="64">
+      <c r="E2" s="66">
         <v>1</v>
       </c>
     </row>
@@ -1633,13 +1793,15 @@
       <c r="D3" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="50"/>
+      <c r="E3" s="52"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>1</v>
       </c>
-      <c r="B4" s="28"/>
+      <c r="B4" s="28" t="s">
+        <v>121</v>
+      </c>
       <c r="C4" s="5">
         <f>EVALUACION1!$C$21</f>
         <v>7</v>
@@ -1658,7 +1820,9 @@
       <c r="A5" s="4">
         <v>2</v>
       </c>
-      <c r="B5" s="28"/>
+      <c r="B5" s="28" t="s">
+        <v>122</v>
+      </c>
       <c r="C5" s="5">
         <f>EVALUACION1!$C$21</f>
         <v>7</v>
@@ -1677,7 +1841,9 @@
       <c r="A6" s="4">
         <v>3</v>
       </c>
-      <c r="B6" s="28"/>
+      <c r="B6" s="28" t="s">
+        <v>123</v>
+      </c>
       <c r="C6" s="5">
         <f>EVALUACION1!$C$21</f>
         <v>7</v>
@@ -1692,50 +1858,53 @@
       </c>
       <c r="G6" s="1"/>
     </row>
+    <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="48"/>
+    </row>
     <row r="11" spans="1:11" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="65" t="s">
+      <c r="A11" s="67" t="s">
         <v>9</v>
       </c>
       <c r="B11" s="15"/>
-      <c r="C11" s="57" t="s">
+      <c r="C11" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="58" t="s">
+      <c r="D11" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="59"/>
-      <c r="F11" s="59"/>
-      <c r="G11" s="59"/>
-      <c r="H11" s="59"/>
-      <c r="I11" s="59"/>
-      <c r="J11" s="59"/>
-      <c r="K11" s="60"/>
+      <c r="E11" s="65"/>
+      <c r="F11" s="65"/>
+      <c r="G11" s="65"/>
+      <c r="H11" s="65"/>
+      <c r="I11" s="65"/>
+      <c r="J11" s="65"/>
+      <c r="K11" s="61"/>
     </row>
     <row r="12" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A12" s="63"/>
       <c r="B12" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="50"/>
-      <c r="D12" s="58" t="s">
+      <c r="C12" s="52"/>
+      <c r="D12" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="E12" s="60"/>
-      <c r="F12" s="58" t="s">
+      <c r="E12" s="61"/>
+      <c r="F12" s="60" t="s">
         <v>6</v>
       </c>
-      <c r="G12" s="60"/>
-      <c r="H12" s="61" t="s">
+      <c r="G12" s="61"/>
+      <c r="H12" s="64" t="s">
         <v>27</v>
       </c>
-      <c r="I12" s="60"/>
-      <c r="J12" s="58" t="s">
+      <c r="I12" s="61"/>
+      <c r="J12" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="K12" s="60"/>
+      <c r="K12" s="61"/>
     </row>
     <row r="13" spans="1:11" ht="24" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="66"/>
+      <c r="A13" s="68"/>
       <c r="B13" s="31" t="str">
         <f>RUBRICA!A4</f>
         <v>1. Implementa una metodología que permite el logro de los objetivos propuestos, de acuerdo a los estándares de la disciplina.</v>
@@ -1777,7 +1946,7 @@
       </c>
     </row>
     <row r="14" spans="1:11" ht="48" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="66"/>
+      <c r="A14" s="68"/>
       <c r="B14" s="31" t="str">
         <f>RUBRICA!A5</f>
         <v>2. Genera evidencias que dan cuenta del cumplimiento del Proyecto CAPSTONE, en relación a documentación, programación y almacenamiento de datos, de acuerdo a lo planificado por el equipo y que cumpla con estándares de desarrollo de la industria</v>
@@ -1819,7 +1988,7 @@
       </c>
     </row>
     <row r="15" spans="1:11" ht="24" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="66"/>
+      <c r="A15" s="68"/>
       <c r="B15" s="31" t="str">
         <f>RUBRICA!A7</f>
         <v>4. Relaciona el Proyecto APT con las competencias del perfil de egreso de su Plan de Estudio.</v>
@@ -1861,7 +2030,7 @@
       </c>
     </row>
     <row r="16" spans="1:11" ht="24" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="66"/>
+      <c r="A16" s="68"/>
       <c r="B16" s="31" t="str">
         <f>RUBRICA!A8</f>
         <v>5. Utiliza de manera precisa el lenguaje técnico en los entregables de acuerdo con lo requerido por la disciplina.</v>
@@ -1903,7 +2072,7 @@
       </c>
     </row>
     <row r="17" spans="1:11" ht="24" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="66"/>
+      <c r="A17" s="68"/>
       <c r="B17" s="31" t="str">
         <f>RUBRICA!A9</f>
         <v xml:space="preserve">6. Utiliza correctamente las reglas de redacción, ortografía (literal, puntual, acentual) y las normas para citas y referencias. </v>
@@ -1945,7 +2114,7 @@
       </c>
     </row>
     <row r="18" spans="1:11" ht="36" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="66"/>
+      <c r="A18" s="68"/>
       <c r="B18" s="31" t="str">
         <f>RUBRICA!A10</f>
         <v>7. Entrega la documentación y evidencias requerida por la asignatura de acuerdo a la estrucutra y nombres solicitados, guardando todas las evidencias de avances en Git</v>
@@ -1987,7 +2156,7 @@
       </c>
     </row>
     <row r="19" spans="1:11" ht="22.9" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="66"/>
+      <c r="A19" s="68"/>
       <c r="B19" s="31" t="str">
         <f>RUBRICA!A12</f>
         <v>9.-Generan evidencias claras dentro del repositorio  del aporte de cada uno de los integrantes del equipo que permitan identificar la equidad en el trabajo y la participación de cada estudiante.</v>
@@ -2059,7 +2228,7 @@
       </c>
     </row>
     <row r="21" spans="1:11" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="50"/>
+      <c r="A21" s="52"/>
       <c r="B21" s="33" t="s">
         <v>13</v>
       </c>
@@ -2074,76 +2243,76 @@
       <c r="A24" s="62" t="s">
         <v>15</v>
       </c>
-      <c r="B24" s="49" t="s">
+      <c r="B24" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="C24" s="51">
+      <c r="C24" s="54" t="str">
         <f>$B$4</f>
-        <v>0</v>
-      </c>
-      <c r="D24" s="52"/>
-      <c r="E24" s="52"/>
-      <c r="F24" s="52"/>
-      <c r="G24" s="52"/>
-      <c r="H24" s="52"/>
-      <c r="I24" s="52"/>
-      <c r="J24" s="52"/>
-      <c r="K24" s="53"/>
+        <v>Henriquez</v>
+      </c>
+      <c r="D24" s="55"/>
+      <c r="E24" s="55"/>
+      <c r="F24" s="55"/>
+      <c r="G24" s="55"/>
+      <c r="H24" s="55"/>
+      <c r="I24" s="55"/>
+      <c r="J24" s="55"/>
+      <c r="K24" s="56"/>
     </row>
     <row r="25" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="63"/>
-      <c r="B25" s="50"/>
-      <c r="C25" s="54"/>
-      <c r="D25" s="55"/>
-      <c r="E25" s="55"/>
-      <c r="F25" s="55"/>
-      <c r="G25" s="55"/>
-      <c r="H25" s="55"/>
-      <c r="I25" s="55"/>
-      <c r="J25" s="55"/>
-      <c r="K25" s="56"/>
+      <c r="B25" s="52"/>
+      <c r="C25" s="57"/>
+      <c r="D25" s="58"/>
+      <c r="E25" s="58"/>
+      <c r="F25" s="58"/>
+      <c r="G25" s="58"/>
+      <c r="H25" s="58"/>
+      <c r="I25" s="58"/>
+      <c r="J25" s="58"/>
+      <c r="K25" s="59"/>
     </row>
     <row r="26" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="63"/>
       <c r="B26" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="C26" s="57" t="s">
+      <c r="C26" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="D26" s="58" t="s">
+      <c r="D26" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="E26" s="59"/>
-      <c r="F26" s="59"/>
-      <c r="G26" s="59"/>
-      <c r="H26" s="59"/>
-      <c r="I26" s="59"/>
-      <c r="J26" s="59"/>
-      <c r="K26" s="60"/>
+      <c r="E26" s="65"/>
+      <c r="F26" s="65"/>
+      <c r="G26" s="65"/>
+      <c r="H26" s="65"/>
+      <c r="I26" s="65"/>
+      <c r="J26" s="65"/>
+      <c r="K26" s="61"/>
     </row>
     <row r="27" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="63"/>
       <c r="B27" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="C27" s="50"/>
-      <c r="D27" s="58" t="s">
+      <c r="C27" s="52"/>
+      <c r="D27" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="E27" s="60"/>
-      <c r="F27" s="58" t="s">
+      <c r="E27" s="61"/>
+      <c r="F27" s="60" t="s">
         <v>6</v>
       </c>
-      <c r="G27" s="60"/>
-      <c r="H27" s="61" t="s">
+      <c r="G27" s="61"/>
+      <c r="H27" s="64" t="s">
         <v>27</v>
       </c>
-      <c r="I27" s="60"/>
-      <c r="J27" s="58" t="s">
+      <c r="I27" s="61"/>
+      <c r="J27" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="K27" s="60"/>
+      <c r="K27" s="61"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="63"/>
@@ -2302,7 +2471,7 @@
       </c>
     </row>
     <row r="32" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="50"/>
+      <c r="A32" s="52"/>
       <c r="B32" s="18" t="s">
         <v>13</v>
       </c>
@@ -2324,76 +2493,76 @@
       <c r="A36" s="62" t="s">
         <v>15</v>
       </c>
-      <c r="B36" s="49" t="s">
+      <c r="B36" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="C36" s="51">
+      <c r="C36" s="54" t="str">
         <f>B5</f>
-        <v>0</v>
-      </c>
-      <c r="D36" s="52"/>
-      <c r="E36" s="52"/>
-      <c r="F36" s="52"/>
-      <c r="G36" s="52"/>
-      <c r="H36" s="52"/>
-      <c r="I36" s="52"/>
-      <c r="J36" s="52"/>
-      <c r="K36" s="53"/>
+        <v>Muñoz</v>
+      </c>
+      <c r="D36" s="55"/>
+      <c r="E36" s="55"/>
+      <c r="F36" s="55"/>
+      <c r="G36" s="55"/>
+      <c r="H36" s="55"/>
+      <c r="I36" s="55"/>
+      <c r="J36" s="55"/>
+      <c r="K36" s="56"/>
     </row>
     <row r="37" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="63"/>
-      <c r="B37" s="50"/>
-      <c r="C37" s="54"/>
-      <c r="D37" s="55"/>
-      <c r="E37" s="55"/>
-      <c r="F37" s="55"/>
-      <c r="G37" s="55"/>
-      <c r="H37" s="55"/>
-      <c r="I37" s="55"/>
-      <c r="J37" s="55"/>
-      <c r="K37" s="56"/>
+      <c r="B37" s="52"/>
+      <c r="C37" s="57"/>
+      <c r="D37" s="58"/>
+      <c r="E37" s="58"/>
+      <c r="F37" s="58"/>
+      <c r="G37" s="58"/>
+      <c r="H37" s="58"/>
+      <c r="I37" s="58"/>
+      <c r="J37" s="58"/>
+      <c r="K37" s="59"/>
     </row>
     <row r="38" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="63"/>
       <c r="B38" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="C38" s="57" t="s">
+      <c r="C38" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="D38" s="58" t="s">
+      <c r="D38" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="E38" s="59"/>
-      <c r="F38" s="59"/>
-      <c r="G38" s="59"/>
-      <c r="H38" s="59"/>
-      <c r="I38" s="59"/>
-      <c r="J38" s="59"/>
-      <c r="K38" s="60"/>
+      <c r="E38" s="65"/>
+      <c r="F38" s="65"/>
+      <c r="G38" s="65"/>
+      <c r="H38" s="65"/>
+      <c r="I38" s="65"/>
+      <c r="J38" s="65"/>
+      <c r="K38" s="61"/>
     </row>
     <row r="39" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="63"/>
       <c r="B39" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="C39" s="50"/>
-      <c r="D39" s="58" t="s">
+      <c r="C39" s="52"/>
+      <c r="D39" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="E39" s="60"/>
-      <c r="F39" s="58" t="s">
+      <c r="E39" s="61"/>
+      <c r="F39" s="60" t="s">
         <v>6</v>
       </c>
-      <c r="G39" s="60"/>
-      <c r="H39" s="61" t="s">
+      <c r="G39" s="61"/>
+      <c r="H39" s="64" t="s">
         <v>27</v>
       </c>
-      <c r="I39" s="60"/>
-      <c r="J39" s="58" t="s">
+      <c r="I39" s="61"/>
+      <c r="J39" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="K39" s="60"/>
+      <c r="K39" s="61"/>
     </row>
     <row r="40" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="63"/>
@@ -2552,7 +2721,7 @@
       </c>
     </row>
     <row r="44" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="50"/>
+      <c r="A44" s="52"/>
       <c r="B44" s="18" t="s">
         <v>13</v>
       </c>
@@ -2573,76 +2742,76 @@
       <c r="A47" s="62" t="s">
         <v>15</v>
       </c>
-      <c r="B47" s="49" t="s">
+      <c r="B47" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="C47" s="51">
+      <c r="C47" s="54" t="str">
         <f>B6</f>
-        <v>0</v>
-      </c>
-      <c r="D47" s="52"/>
-      <c r="E47" s="52"/>
-      <c r="F47" s="52"/>
-      <c r="G47" s="52"/>
-      <c r="H47" s="52"/>
-      <c r="I47" s="52"/>
-      <c r="J47" s="52"/>
-      <c r="K47" s="53"/>
+        <v>Fleiderman</v>
+      </c>
+      <c r="D47" s="55"/>
+      <c r="E47" s="55"/>
+      <c r="F47" s="55"/>
+      <c r="G47" s="55"/>
+      <c r="H47" s="55"/>
+      <c r="I47" s="55"/>
+      <c r="J47" s="55"/>
+      <c r="K47" s="56"/>
     </row>
     <row r="48" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="63"/>
-      <c r="B48" s="50"/>
-      <c r="C48" s="54"/>
-      <c r="D48" s="55"/>
-      <c r="E48" s="55"/>
-      <c r="F48" s="55"/>
-      <c r="G48" s="55"/>
-      <c r="H48" s="55"/>
-      <c r="I48" s="55"/>
-      <c r="J48" s="55"/>
-      <c r="K48" s="56"/>
+      <c r="B48" s="52"/>
+      <c r="C48" s="57"/>
+      <c r="D48" s="58"/>
+      <c r="E48" s="58"/>
+      <c r="F48" s="58"/>
+      <c r="G48" s="58"/>
+      <c r="H48" s="58"/>
+      <c r="I48" s="58"/>
+      <c r="J48" s="58"/>
+      <c r="K48" s="59"/>
     </row>
     <row r="49" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="63"/>
       <c r="B49" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="C49" s="57" t="s">
+      <c r="C49" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="D49" s="58" t="s">
+      <c r="D49" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="E49" s="59"/>
-      <c r="F49" s="59"/>
-      <c r="G49" s="59"/>
-      <c r="H49" s="59"/>
-      <c r="I49" s="59"/>
-      <c r="J49" s="59"/>
-      <c r="K49" s="60"/>
+      <c r="E49" s="65"/>
+      <c r="F49" s="65"/>
+      <c r="G49" s="65"/>
+      <c r="H49" s="65"/>
+      <c r="I49" s="65"/>
+      <c r="J49" s="65"/>
+      <c r="K49" s="61"/>
     </row>
     <row r="50" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="63"/>
       <c r="B50" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="C50" s="50"/>
-      <c r="D50" s="58" t="s">
+      <c r="C50" s="52"/>
+      <c r="D50" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="E50" s="60"/>
-      <c r="F50" s="58" t="s">
+      <c r="E50" s="61"/>
+      <c r="F50" s="60" t="s">
         <v>6</v>
       </c>
-      <c r="G50" s="60"/>
-      <c r="H50" s="61" t="s">
+      <c r="G50" s="61"/>
+      <c r="H50" s="64" t="s">
         <v>27</v>
       </c>
-      <c r="I50" s="60"/>
-      <c r="J50" s="58" t="s">
+      <c r="I50" s="61"/>
+      <c r="J50" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="K50" s="60"/>
+      <c r="K50" s="61"/>
     </row>
     <row r="51" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="63"/>
@@ -2801,7 +2970,7 @@
       </c>
     </row>
     <row r="55" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="50"/>
+      <c r="A55" s="52"/>
       <c r="B55" s="18" t="s">
         <v>13</v>
       </c>
@@ -3686,17 +3855,14 @@
     <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="C49:C50"/>
-    <mergeCell ref="C47:K48"/>
-    <mergeCell ref="J50:K50"/>
-    <mergeCell ref="A47:A55"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="D49:K49"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="F50:G50"/>
-    <mergeCell ref="H50:I50"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="C36:K37"/>
+    <mergeCell ref="C38:C39"/>
+    <mergeCell ref="D38:K38"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="H39:I39"/>
+    <mergeCell ref="J39:K39"/>
     <mergeCell ref="A36:A44"/>
     <mergeCell ref="A24:A32"/>
     <mergeCell ref="E2:E3"/>
@@ -3713,14 +3879,17 @@
     <mergeCell ref="D26:K26"/>
     <mergeCell ref="D27:E27"/>
     <mergeCell ref="F27:G27"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="C36:K37"/>
-    <mergeCell ref="C38:C39"/>
-    <mergeCell ref="D38:K38"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="H39:I39"/>
-    <mergeCell ref="J39:K39"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="D49:K49"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="F50:G50"/>
+    <mergeCell ref="H50:I50"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="C49:C50"/>
+    <mergeCell ref="C47:K48"/>
+    <mergeCell ref="J50:K50"/>
+    <mergeCell ref="A47:A55"/>
   </mergeCells>
   <conditionalFormatting sqref="C4:E6">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
@@ -3730,17 +3899,17 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="1">
+  <dataValidations disablePrompts="1" count="1">
     <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Error de Ingreso - Nota debe estar entre 1,0 y 7,0" sqref="C4:E6" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>1</formula1>
       <formula2>7</formula2>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="1">
         <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000000000000}">
           <x14:formula1>
             <xm:f>'RELEVANCIA-PUNTAJE'!$B$2:$E$2</xm:f>
@@ -3754,6 +3923,231 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE13DC54-D108-487A-9544-0B766AC519C6}">
+  <dimension ref="C2:N39"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="13.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C2" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="M2" s="47" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="3" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C3" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="4" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C4" s="47" t="s">
+        <v>93</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="5" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C5" s="47"/>
+    </row>
+    <row r="6" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C6" s="3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="7" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C7" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="8" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C8" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="I8" s="47" t="s">
+        <v>96</v>
+      </c>
+      <c r="L8" s="47" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="9" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C9" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="10" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="H10" s="47"/>
+    </row>
+    <row r="11" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C11" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="12" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C12" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D12" s="47" t="s">
+        <v>91</v>
+      </c>
+      <c r="F12" s="47" t="s">
+        <v>99</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="14" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C14" s="47" t="s">
+        <v>78</v>
+      </c>
+      <c r="D14" s="47" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="16" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C16" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C18" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C20" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C21" s="47"/>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C22" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="L22" s="47"/>
+      <c r="N22" s="47"/>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C23" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="L23" s="47"/>
+      <c r="N23" s="47"/>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C24" s="47" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="L25" s="47"/>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="L27" s="47" t="s">
+        <v>103</v>
+      </c>
+      <c r="N27" s="47" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C28" s="47" t="s">
+        <v>80</v>
+      </c>
+      <c r="L28" s="47" t="s">
+        <v>104</v>
+      </c>
+      <c r="N28" s="47" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C29" s="47" t="s">
+        <v>81</v>
+      </c>
+      <c r="E29" s="47" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C30" s="47" t="s">
+        <v>82</v>
+      </c>
+      <c r="L30" s="47" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C31" s="47" t="s">
+        <v>83</v>
+      </c>
+      <c r="E31" s="47" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C32" s="47" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="33" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C33" s="47" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="37" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C37" s="47" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="39" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C39" s="47" t="s">
+        <v>90</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B1000"/>
   <sheetViews>
@@ -5836,7 +6230,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B1000"/>
   <sheetViews>
@@ -6278,1393 +6672,6 @@
       <c r="B54" s="1">
         <v>7</v>
       </c>
-    </row>
-    <row r="55" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="56" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="57" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="58" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="59" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="60" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="61" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="62" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="63" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="64" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
-  <pageSetup orientation="landscape"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:B1000"/>
-  <sheetViews>
-    <sheetView topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="A153" sqref="A153:B162"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="26" width="10.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>0.5</v>
-      </c>
-      <c r="B3">
-        <v>1.1000000000000001</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>1</v>
-      </c>
-      <c r="B4">
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>1.5</v>
-      </c>
-      <c r="B5">
-        <v>1.3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>2</v>
-      </c>
-      <c r="B6">
-        <v>1.4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>2.5</v>
-      </c>
-      <c r="B7">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>3</v>
-      </c>
-      <c r="B8">
-        <v>1.6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>3.5</v>
-      </c>
-      <c r="B9">
-        <v>1.7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>4</v>
-      </c>
-      <c r="B10">
-        <v>1.8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>4.5</v>
-      </c>
-      <c r="B11">
-        <v>1.9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>5</v>
-      </c>
-      <c r="B12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>5.5</v>
-      </c>
-      <c r="B13">
-        <v>2.1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>6</v>
-      </c>
-      <c r="B14">
-        <v>2.2000000000000002</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>6.5</v>
-      </c>
-      <c r="B15">
-        <v>2.2999999999999998</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>7</v>
-      </c>
-      <c r="B16">
-        <v>2.4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>7.5</v>
-      </c>
-      <c r="B17">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>8</v>
-      </c>
-      <c r="B18">
-        <v>2.6</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>8.5</v>
-      </c>
-      <c r="B19">
-        <v>2.7</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>9</v>
-      </c>
-      <c r="B20">
-        <v>2.8</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>9.5</v>
-      </c>
-      <c r="B21">
-        <v>2.9</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>10</v>
-      </c>
-      <c r="B22">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>10.5</v>
-      </c>
-      <c r="B23">
-        <v>3.1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>11</v>
-      </c>
-      <c r="B24">
-        <v>3.2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>11.5</v>
-      </c>
-      <c r="B25">
-        <v>3.3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>12</v>
-      </c>
-      <c r="B26">
-        <v>3.4</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>12.5</v>
-      </c>
-      <c r="B27">
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>13</v>
-      </c>
-      <c r="B28">
-        <v>3.6</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>13.5</v>
-      </c>
-      <c r="B29">
-        <v>3.7</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>14</v>
-      </c>
-      <c r="B30">
-        <v>3.8</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>14.5</v>
-      </c>
-      <c r="B31">
-        <v>3.9</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <v>15</v>
-      </c>
-      <c r="B32">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <v>15.5</v>
-      </c>
-      <c r="B33">
-        <v>4.2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <v>16</v>
-      </c>
-      <c r="B34">
-        <v>4.3</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35">
-        <v>16.5</v>
-      </c>
-      <c r="B35">
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36">
-        <v>17</v>
-      </c>
-      <c r="B36">
-        <v>4.5999999999999996</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37">
-        <v>17.5</v>
-      </c>
-      <c r="B37">
-        <v>4.8</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38">
-        <v>18</v>
-      </c>
-      <c r="B38">
-        <v>4.9000000000000004</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39">
-        <v>18.5</v>
-      </c>
-      <c r="B39">
-        <v>5.0999999999999996</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40">
-        <v>19</v>
-      </c>
-      <c r="B40">
-        <v>5.2</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41">
-        <v>19.5</v>
-      </c>
-      <c r="B41">
-        <v>5.4</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42">
-        <v>20</v>
-      </c>
-      <c r="B42">
-        <v>5.5</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43">
-        <v>20.5</v>
-      </c>
-      <c r="B43">
-        <v>5.7</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44">
-        <v>21</v>
-      </c>
-      <c r="B44">
-        <v>5.8</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45">
-        <v>21.5</v>
-      </c>
-      <c r="B45">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46">
-        <v>22</v>
-      </c>
-      <c r="B46">
-        <v>6.1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47">
-        <v>22.5</v>
-      </c>
-      <c r="B47">
-        <v>6.3</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48">
-        <v>23</v>
-      </c>
-      <c r="B48">
-        <v>6.4</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49">
-        <v>23.5</v>
-      </c>
-      <c r="B49">
-        <v>6.6</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50">
-        <v>24</v>
-      </c>
-      <c r="B50">
-        <v>6.7</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51">
-        <v>24.5</v>
-      </c>
-      <c r="B51">
-        <v>6.9</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52">
-        <v>25</v>
-      </c>
-      <c r="B52">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="1"/>
-    </row>
-    <row r="54" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="1"/>
     </row>
     <row r="55" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="56" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -8619,6 +7626,1393 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:B1000"/>
+  <sheetViews>
+    <sheetView topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="A153" sqref="A153:B162"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="26" width="10.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>0.5</v>
+      </c>
+      <c r="B3">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>1.5</v>
+      </c>
+      <c r="B5">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>2.5</v>
+      </c>
+      <c r="B7">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>3</v>
+      </c>
+      <c r="B8">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>3.5</v>
+      </c>
+      <c r="B9">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>4</v>
+      </c>
+      <c r="B10">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>4.5</v>
+      </c>
+      <c r="B11">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>5</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>5.5</v>
+      </c>
+      <c r="B13">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>6</v>
+      </c>
+      <c r="B14">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>6.5</v>
+      </c>
+      <c r="B15">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>7</v>
+      </c>
+      <c r="B16">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>7.5</v>
+      </c>
+      <c r="B17">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>8</v>
+      </c>
+      <c r="B18">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>8.5</v>
+      </c>
+      <c r="B19">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>9</v>
+      </c>
+      <c r="B20">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>9.5</v>
+      </c>
+      <c r="B21">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>10</v>
+      </c>
+      <c r="B22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>10.5</v>
+      </c>
+      <c r="B23">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>11</v>
+      </c>
+      <c r="B24">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>11.5</v>
+      </c>
+      <c r="B25">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>12</v>
+      </c>
+      <c r="B26">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>12.5</v>
+      </c>
+      <c r="B27">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>13</v>
+      </c>
+      <c r="B28">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>13.5</v>
+      </c>
+      <c r="B29">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>14</v>
+      </c>
+      <c r="B30">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>14.5</v>
+      </c>
+      <c r="B31">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>15</v>
+      </c>
+      <c r="B32">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>15.5</v>
+      </c>
+      <c r="B33">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>16</v>
+      </c>
+      <c r="B34">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>16.5</v>
+      </c>
+      <c r="B35">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>17</v>
+      </c>
+      <c r="B36">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>17.5</v>
+      </c>
+      <c r="B37">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>18</v>
+      </c>
+      <c r="B38">
+        <v>4.9000000000000004</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>18.5</v>
+      </c>
+      <c r="B39">
+        <v>5.0999999999999996</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>19</v>
+      </c>
+      <c r="B40">
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>19.5</v>
+      </c>
+      <c r="B41">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>20</v>
+      </c>
+      <c r="B42">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>20.5</v>
+      </c>
+      <c r="B43">
+        <v>5.7</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>21</v>
+      </c>
+      <c r="B44">
+        <v>5.8</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>21.5</v>
+      </c>
+      <c r="B45">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>22</v>
+      </c>
+      <c r="B46">
+        <v>6.1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>22.5</v>
+      </c>
+      <c r="B47">
+        <v>6.3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>23</v>
+      </c>
+      <c r="B48">
+        <v>6.4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>23.5</v>
+      </c>
+      <c r="B49">
+        <v>6.6</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>24</v>
+      </c>
+      <c r="B50">
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>24.5</v>
+      </c>
+      <c r="B51">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>25</v>
+      </c>
+      <c r="B52">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B53" s="1"/>
+    </row>
+    <row r="54" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B54" s="1"/>
+    </row>
+    <row r="55" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="56" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="57" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="58" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="59" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="60" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="61" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="62" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="63" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="64" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
+  <pageSetup orientation="landscape"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:E1000"/>
   <sheetViews>
@@ -8632,7 +9026,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="67" t="s">
+      <c r="A1" s="69" t="s">
         <v>3</v>
       </c>
       <c r="B1" s="7" t="s">
@@ -8643,7 +9037,7 @@
       <c r="E1" s="9"/>
     </row>
     <row r="2" spans="1:5" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="68"/>
+      <c r="A2" s="70"/>
       <c r="B2" s="10" t="s">
         <v>5</v>
       </c>
